--- a/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/sslb_vorlage.xlsx
+++ b/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/sslb_vorlage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws_intern\planpro\set\java\bundles\org.eclipse.set.feature\rootdir\data\export\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6AC3AE-3057-4B64-9733-DCAA2041DFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34ED3C6-E39E-4B0E-AD3E-9772848CF2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sslb" sheetId="4" r:id="rId1"/>
@@ -251,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -288,10 +288,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -300,7 +300,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -315,72 +315,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -412,15 +347,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -428,52 +354,6 @@
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -496,55 +376,69 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -552,7 +446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -560,40 +454,28 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -602,28 +484,16 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -635,49 +505,37 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -988,507 +846,509 @@
   <dimension ref="A1:BG55"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I16" sqref="I15:I16"/>
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="5.28515625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="8" style="4" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" style="4" customWidth="1"/>
-    <col min="19" max="22" width="8.28515625" style="4" customWidth="1"/>
-    <col min="23" max="23" width="6.28515625" style="4" customWidth="1"/>
-    <col min="24" max="24" width="7" style="4" customWidth="1"/>
-    <col min="25" max="25" width="9.5703125" style="4" customWidth="1"/>
-    <col min="26" max="26" width="8.28515625" style="4" customWidth="1"/>
-    <col min="27" max="27" width="11.42578125" style="4"/>
-    <col min="28" max="28" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="3" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="5.28515625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="8" style="3" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" style="3" customWidth="1"/>
+    <col min="19" max="22" width="8.28515625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="6.28515625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="7" style="3" customWidth="1"/>
+    <col min="25" max="25" width="9.5703125" style="3" customWidth="1"/>
+    <col min="26" max="26" width="8.28515625" style="3" customWidth="1"/>
+    <col min="27" max="27" width="11.42578125" style="3"/>
+    <col min="28" max="28" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="10" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:59" s="8" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7"/>
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="X1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Y1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="4"/>
-      <c r="AR1" s="4"/>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="4"/>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4"/>
-      <c r="AX1" s="4"/>
-      <c r="AY1" s="4"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="4"/>
-      <c r="BB1" s="4"/>
-      <c r="BC1" s="4"/>
-      <c r="BD1" s="4"/>
-      <c r="BE1" s="4"/>
-      <c r="BF1" s="4"/>
-      <c r="BG1" s="4"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3"/>
     </row>
     <row r="2" spans="1:59" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="32" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="33" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="38" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="32" t="s">
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="38" t="s">
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="11" t="s">
+      <c r="X2" s="16"/>
+      <c r="Y2" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="12" t="s">
+      <c r="Z2" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="24" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="41" t="s">
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="26" t="s">
+      <c r="K3" s="24"/>
+      <c r="L3" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="28" t="s">
+      <c r="M3" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="N3" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="26" t="s">
+      <c r="O3" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="26" t="s">
+      <c r="P3" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="Q3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="30" t="s">
+      <c r="R3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="35" t="s">
+      <c r="S3" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="37"/>
-      <c r="U3" s="26" t="s">
+      <c r="T3" s="24"/>
+      <c r="U3" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="28" t="s">
+      <c r="V3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="24" t="s">
+      <c r="W3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="X3" s="28" t="s">
+      <c r="X3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="Y3" s="22" t="s">
+      <c r="Y3" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="Z3" s="6"/>
+      <c r="Z3" s="5"/>
     </row>
     <row r="4" spans="1:59" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="29"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="1" t="s">
         <v>44</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>57</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="27"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="31"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="18"/>
       <c r="S4" s="1" t="s">
         <v>42</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U4" s="27"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="7"/>
-    </row>
-    <row r="5" spans="1:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="13"/>
-    </row>
-    <row r="6" spans="1:59" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="6"/>
+    </row>
+    <row r="5" spans="1:59" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+    </row>
+    <row r="6" spans="1:59" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
     </row>
     <row r="7" spans="1:59" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
+      <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:59" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:59" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="20"/>
+      <c r="B9" s="14"/>
     </row>
     <row r="10" spans="1:59" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="20"/>
+      <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:59" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="20"/>
+      <c r="B11" s="14"/>
     </row>
     <row r="12" spans="1:59" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="20"/>
+      <c r="B12" s="14"/>
     </row>
     <row r="13" spans="1:59" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="20"/>
+      <c r="B13" s="14"/>
     </row>
     <row r="14" spans="1:59" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="20"/>
+      <c r="B14" s="14"/>
     </row>
     <row r="15" spans="1:59" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="20"/>
+      <c r="B15" s="14"/>
     </row>
     <row r="16" spans="1:59" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="20"/>
+      <c r="B16" s="14"/>
     </row>
     <row r="17" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="20"/>
+      <c r="B17" s="14"/>
     </row>
     <row r="18" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="20"/>
+      <c r="B18" s="14"/>
     </row>
     <row r="19" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="20"/>
+      <c r="B19" s="14"/>
     </row>
     <row r="20" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="20"/>
+      <c r="B20" s="14"/>
     </row>
     <row r="21" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="20"/>
+      <c r="B21" s="14"/>
     </row>
     <row r="22" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="20"/>
+      <c r="B22" s="14"/>
     </row>
     <row r="23" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="20"/>
+      <c r="B23" s="14"/>
     </row>
     <row r="24" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="20"/>
+      <c r="B24" s="14"/>
     </row>
     <row r="25" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="20"/>
+      <c r="B25" s="14"/>
     </row>
     <row r="26" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="20"/>
+      <c r="B26" s="14"/>
     </row>
     <row r="27" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="20"/>
+      <c r="B27" s="14"/>
     </row>
     <row r="28" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="20"/>
+      <c r="B28" s="14"/>
     </row>
     <row r="29" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="20"/>
+      <c r="B29" s="14"/>
     </row>
     <row r="30" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="20"/>
+      <c r="B30" s="14"/>
     </row>
     <row r="31" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="20"/>
+      <c r="B31" s="14"/>
     </row>
     <row r="32" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="20"/>
+      <c r="B32" s="14"/>
     </row>
     <row r="33" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="20"/>
+      <c r="B33" s="14"/>
     </row>
     <row r="34" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="20"/>
+      <c r="B34" s="14"/>
     </row>
     <row r="35" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="20"/>
+      <c r="B35" s="14"/>
     </row>
     <row r="36" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="20"/>
+      <c r="B36" s="14"/>
     </row>
     <row r="37" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="20"/>
+      <c r="B37" s="14"/>
     </row>
     <row r="38" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="20"/>
+      <c r="B38" s="14"/>
     </row>
     <row r="39" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="20"/>
+      <c r="B39" s="14"/>
     </row>
     <row r="40" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="20"/>
+      <c r="B40" s="14"/>
     </row>
     <row r="41" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="20"/>
+      <c r="B41" s="14"/>
     </row>
     <row r="42" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="20"/>
+      <c r="B42" s="14"/>
     </row>
     <row r="43" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="20"/>
+      <c r="B43" s="14"/>
     </row>
     <row r="44" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="20"/>
+      <c r="B44" s="14"/>
     </row>
     <row r="45" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="20"/>
+      <c r="B45" s="14"/>
     </row>
     <row r="46" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="20"/>
+      <c r="B46" s="14"/>
     </row>
     <row r="47" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="20"/>
+      <c r="B47" s="14"/>
     </row>
     <row r="48" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="20"/>
+      <c r="B48" s="14"/>
     </row>
     <row r="49" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="20"/>
+      <c r="B49" s="14"/>
     </row>
     <row r="50" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="20"/>
+      <c r="B50" s="14"/>
     </row>
     <row r="51" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="20"/>
+      <c r="B51" s="14"/>
     </row>
     <row r="52" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="20"/>
+      <c r="B52" s="14"/>
     </row>
     <row r="53" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="O3:O4"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="M3:M4"/>
@@ -1498,15 +1358,13 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="S3:T3"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.19685039370078741" bottom="0.59055118110236227" header="0" footer="0"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
@@ -1526,6 +1384,65 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E758A0F93049BE4CAD441F10C0D8186D" ma:contentTypeVersion="5" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fb340e34ecc5d059b634082484788e96">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="576ce185-3b2e-4f75-8b7c-efeb82226bea" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v3/fields" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae5cd419a40dc0c21009e0c04d2bd83e" ns2:_="" ns3:_="">
     <xsd:import namespace="576ce185-3b2e-4f75-8b7c-efeb82226bea"/>
@@ -1717,65 +1634,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97EB0475-077E-4E0F-8C93-278E6EB69D4A}">
   <ds:schemaRefs>
@@ -1794,6 +1652,30 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FA61470-DD61-4999-8627-225AC049B66F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{947F1741-2986-4B63-8B5C-D0468C671233}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C5838C-81AB-4B9A-B282-4E4B57DAFB8B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD45C59E-C13E-4B92-9551-AE1790848EFA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1810,28 +1692,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C5838C-81AB-4B9A-B282-4E4B57DAFB8B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{947F1741-2986-4B63-8B5C-D0468C671233}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FA61470-DD61-4999-8627-225AC049B66F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>